--- a/모두의 딥러닝 용어 사전.xlsx
+++ b/모두의 딥러닝 용어 사전.xlsx
@@ -15,7 +15,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="38" uniqueCount="23">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="45" uniqueCount="30">
   <si>
     <t>List</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -117,6 +117,40 @@
   </si>
   <si>
     <t xml:space="preserve">선형 회귀 모델링의 대표적인 cost function인 Mse 외에도 mae mape 등이 존재하고 회귀모델이 아닌 분류문제 등 문제에 따라 cost function이 달라지며 많이 쓰는것으로는 ce (cross entropy) 같은 것이 있습니다. </t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>전체 데이터 셋을 한번 다 학습 시킨 것.</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>batch size</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>one epoch</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>한번 학습 시킬때 사용하는 데이터</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve">if) 1000 training examples, and my batch size is 500, then it will take 2 iterations to complete 1 epoch.
+</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Learning Rate</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve">모델링할때 주의할 점
+- learning rate 크다면 overshooting 발생
+- learning rate 작다면 local minimal 발생 (cost 함수 값이 낮아지지 않고 그 전에 머물러 버림)
+- Non-normalized inputs : 입력데이터가 정규화 되지 않았다. 즉, 데이터들을 정규화(평균 = 0, 표준편차 =1) 시켜줘야 함.
+  * MinMaxScaler() 사용해서 0~1사이의 값을 가지게 함
+</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -803,8 +837,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="B1:E32"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" topLeftCell="B1" workbookViewId="0">
-      <selection activeCell="D6" sqref="D6"/>
+    <sheetView showGridLines="0" tabSelected="1" topLeftCell="A4" workbookViewId="0">
+      <selection activeCell="C10" sqref="C10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
@@ -913,24 +947,38 @@
       <c r="B8" s="2">
         <v>7</v>
       </c>
-      <c r="C8" s="2"/>
-      <c r="D8" s="1"/>
+      <c r="C8" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="D8" s="1" t="s">
+        <v>23</v>
+      </c>
       <c r="E8" s="1"/>
     </row>
-    <row r="9" spans="2:5" x14ac:dyDescent="0.3">
+    <row r="9" spans="2:5" ht="49.5" x14ac:dyDescent="0.3">
       <c r="B9" s="2">
         <v>8</v>
       </c>
-      <c r="C9" s="2"/>
-      <c r="D9" s="1"/>
-      <c r="E9" s="1"/>
-    </row>
-    <row r="10" spans="2:5" x14ac:dyDescent="0.3">
+      <c r="C9" s="2" t="s">
+        <v>24</v>
+      </c>
+      <c r="D9" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="E9" s="4" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="10" spans="2:5" ht="132" x14ac:dyDescent="0.3">
       <c r="B10" s="2">
         <v>9</v>
       </c>
-      <c r="C10" s="2"/>
-      <c r="D10" s="1"/>
+      <c r="C10" s="2" t="s">
+        <v>28</v>
+      </c>
+      <c r="D10" s="4" t="s">
+        <v>29</v>
+      </c>
       <c r="E10" s="1"/>
     </row>
     <row r="11" spans="2:5" x14ac:dyDescent="0.3">
